--- a/outputs/testbook_applicativi_feedbackAI.xlsx
+++ b/outputs/testbook_applicativi_feedbackAI.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK422"/>
+  <dimension ref="A1:AK411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18290,7 +18290,7 @@
     <row r="404">
       <c r="A404" s="2" t="inlineStr">
         <is>
-          <t>Fantacalcio-proj_20_requirement_data_source_selection_TEST_Desktop</t>
+          <t>Fallback_Solution_001_Backend_TEST_Server</t>
         </is>
       </c>
       <c r="B404" s="2" t="inlineStr">
@@ -18303,17 +18303,17 @@
       </c>
       <c r="D404" s="2" t="inlineStr">
         <is>
-          <t>Desktop</t>
+          <t>Backend</t>
         </is>
       </c>
       <c r="E404" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>API</t>
         </is>
       </c>
       <c r="F404" s="2" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Server</t>
         </is>
       </c>
       <c r="G404" s="2" t="inlineStr">
@@ -18328,23 +18328,22 @@
       </c>
       <c r="I404" s="2" t="inlineStr">
         <is>
-          <t>Windows 10, Fantacalcio Web</t>
+          <t>Linux, Backend Application</t>
         </is>
       </c>
       <c r="J404" s="2" t="inlineStr">
         <is>
-          <t>1. User has valid credentials and is logged into Fantacalcio.
-2. Bologna-Milan match is scheduled and available in the system.</t>
+          <t>Fantacalcio API should be configured and accessible; Sportradar API should be active.</t>
         </is>
       </c>
       <c r="K404" s="2" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Automated</t>
         </is>
       </c>
       <c r="L404" s="2" t="inlineStr">
         <is>
-          <t>Data Source Selection</t>
+          <t>Fallback Solution</t>
         </is>
       </c>
       <c r="M404" s="2" t="inlineStr">
@@ -18360,12 +18359,12 @@
       </c>
       <c r="P404" s="2" t="inlineStr">
         <is>
-          <t>User credentials, Bologna-Milan match data</t>
+          <t>Mocked API responses for Fantacalcio and Sportradar</t>
         </is>
       </c>
       <c r="Q404" s="2" t="inlineStr">
         <is>
-          <t>For Bologna-Milan, Sportradar is used as the sole source for official lineups, and Fantacalcio is not used.</t>
+          <t>System uses Sportradar as a fallback successfully.</t>
         </is>
       </c>
       <c r="R404" s="2" t="n">
@@ -18373,12 +18372,12 @@
       </c>
       <c r="S404" s="2" t="inlineStr">
         <is>
-          <t>Access the Fantacalcio application on Desktop.</t>
+          <t>Trigger a match event using the Fantacalcio API.</t>
         </is>
       </c>
       <c r="T404" s="2" t="inlineStr">
         <is>
-          <t>Fantacalcio application loads successfully.</t>
+          <t>Fantacalcio API is called successfully.</t>
         </is>
       </c>
       <c r="U404" s="2" t="inlineStr">
@@ -18393,12 +18392,12 @@
       </c>
       <c r="Z404" s="2" t="inlineStr">
         <is>
-          <t>Covers only the Bologna-Milan match data source selection logic.</t>
+          <t>Covers only the fallback mechanism; detailed API response validation not included.</t>
         </is>
       </c>
       <c r="AA404" s="2" t="inlineStr">
         <is>
-          <t>Esclusione Fantacalcio su specifico match – Recuperi e Match Day (RU 4)</t>
+          <t>Soluzione di Fallback in caso di esclusione Fantacalcio (RU 5)</t>
         </is>
       </c>
     </row>
@@ -18408,12 +18407,12 @@
       </c>
       <c r="S405" s="2" t="inlineStr">
         <is>
-          <t>Navigate to the match details for Bologna-Milan.</t>
+          <t>Simulate the unavailability of the Fantacalcio API.</t>
         </is>
       </c>
       <c r="T405" s="2" t="inlineStr">
         <is>
-          <t>Match details page for Bologna-Milan is displayed.</t>
+          <t>Fantacalcio API should return an error.</t>
         </is>
       </c>
     </row>
@@ -18423,19 +18422,19 @@
       </c>
       <c r="S406" s="2" t="inlineStr">
         <is>
-          <t>Check the data source used for official lineups for Bologna-Milan.</t>
+          <t>Verify that the system retrieves the official formations from Sportradar API instead.</t>
         </is>
       </c>
       <c r="T406" s="2" t="inlineStr">
         <is>
-          <t>Sportradar is displayed as the data source for official lineups for Bologna-Milan.</t>
+          <t>The official formations from Sportradar API are fetched successfully.</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="inlineStr">
         <is>
-          <t>Fantacalcio-proj_20_requirement_data_source_selection_weekend_matches_TEST_Desktop</t>
+          <t>API_Unavailability_002_Backend_TEST_Server</t>
         </is>
       </c>
       <c r="B407" s="2" t="inlineStr">
@@ -18448,22 +18447,22 @@
       </c>
       <c r="D407" s="2" t="inlineStr">
         <is>
-          <t>Desktop</t>
+          <t>Backend</t>
         </is>
       </c>
       <c r="E407" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>API</t>
         </is>
       </c>
       <c r="F407" s="2" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Server</t>
         </is>
       </c>
       <c r="G407" s="2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H407" s="2" t="inlineStr">
@@ -18473,13 +18472,12 @@
       </c>
       <c r="I407" s="2" t="inlineStr">
         <is>
-          <t>Windows 10, Fantacalcio Web</t>
+          <t>Linux, Backend Application</t>
         </is>
       </c>
       <c r="J407" s="2" t="inlineStr">
         <is>
-          <t>1. User has valid credentials and is logged into Fantacalcio.
-2. Weekend matches for turn number 20 are scheduled and available in the system (excluding Bologna-Milan).</t>
+          <t>Both APIs must be configured in the system.</t>
         </is>
       </c>
       <c r="K407" s="2" t="inlineStr">
@@ -18489,7 +18487,7 @@
       </c>
       <c r="L407" s="2" t="inlineStr">
         <is>
-          <t>Data Source Selection</t>
+          <t>API Unavailability Handling</t>
         </is>
       </c>
       <c r="M407" s="2" t="inlineStr">
@@ -18497,20 +18495,17 @@
           <t>functional</t>
         </is>
       </c>
-      <c r="N407" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="O407" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P407" s="2" t="inlineStr">
         <is>
-          <t>User credentials, weekend match data for turn 20 (excluding Bologna-Milan)</t>
+          <t>No specific dataset required.</t>
         </is>
       </c>
       <c r="Q407" s="2" t="inlineStr">
         <is>
-          <t>For weekend matches of turn number 20 (excluding Bologna-Milan), Fantacalcio is used as the data source for official lineups.</t>
+          <t>Fallback initiation without user intervention.</t>
         </is>
       </c>
       <c r="R407" s="2" t="n">
@@ -18518,12 +18513,12 @@
       </c>
       <c r="S407" s="2" t="inlineStr">
         <is>
-          <t>Access the Fantacalcio application on Desktop.</t>
+          <t>Request formations from the Fantacalcio API during normal operation.</t>
         </is>
       </c>
       <c r="T407" s="2" t="inlineStr">
         <is>
-          <t>Fantacalcio application loads successfully.</t>
+          <t>Valid formations are returned from Fantacalcio API.</t>
         </is>
       </c>
       <c r="U407" s="2" t="inlineStr">
@@ -18538,12 +18533,12 @@
       </c>
       <c r="Z407" s="2" t="inlineStr">
         <is>
-          <t>Covers only weekend matches of turn 20, excluding Bologna-Milan.</t>
+          <t>Validates fallback conditions; doesn't cover network latency issues.</t>
         </is>
       </c>
       <c r="AA407" s="2" t="inlineStr">
         <is>
-          <t>Esclusione Fantacalcio su specifico match – Recuperi e Match Day (RU 4)</t>
+          <t>Soluzione di Fallback in caso di esclusione Fantacalcio (RU 5)</t>
         </is>
       </c>
     </row>
@@ -18553,12 +18548,12 @@
       </c>
       <c r="S408" s="2" t="inlineStr">
         <is>
-          <t>Navigate to the match details for a weekend match in turn number 20 (excluding Bologna-Milan).</t>
+          <t>Manually disable the Fantacalcio API endpoint.</t>
         </is>
       </c>
       <c r="T408" s="2" t="inlineStr">
         <is>
-          <t>Match details page for the selected weekend match is displayed.</t>
+          <t>Fantacalcio API endpoint is not reachable.</t>
         </is>
       </c>
     </row>
@@ -18568,19 +18563,19 @@
       </c>
       <c r="S409" s="2" t="inlineStr">
         <is>
-          <t>Check the data source used for official lineups for the selected match.</t>
+          <t>Attempt to retrieve data from the system after API unavailability.</t>
         </is>
       </c>
       <c r="T409" s="2" t="inlineStr">
         <is>
-          <t>Fantacalcio is displayed as the data source for official lineups for the selected weekend match.</t>
+          <t>The system automatically switches to retrieving data from Sportradar API.</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="inlineStr">
         <is>
-          <t>Fantacalcio-proj_20_requirement_data_source_selection_BolognaMilan_negative_TEST_Desktop</t>
+          <t>Verify_Mapping_Conversion_003_Backend_TEST_Server</t>
         </is>
       </c>
       <c r="B410" s="2" t="inlineStr">
@@ -18593,22 +18588,22 @@
       </c>
       <c r="D410" s="2" t="inlineStr">
         <is>
-          <t>Desktop</t>
+          <t>Backend</t>
         </is>
       </c>
       <c r="E410" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>API</t>
         </is>
       </c>
       <c r="F410" s="2" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Server</t>
         </is>
       </c>
       <c r="G410" s="2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="H410" s="2" t="inlineStr">
@@ -18618,13 +18613,12 @@
       </c>
       <c r="I410" s="2" t="inlineStr">
         <is>
-          <t>Windows 10, Fantacalcio Web</t>
+          <t>Windows Server, API Application</t>
         </is>
       </c>
       <c r="J410" s="2" t="inlineStr">
         <is>
-          <t>1. User has valid credentials and is logged into Fantacalcio.
-2. Bologna-Milan match is scheduled and available in the system.</t>
+          <t>Integration with OPTA Sports Data API is already established.</t>
         </is>
       </c>
       <c r="K410" s="2" t="inlineStr">
@@ -18634,7 +18628,7 @@
       </c>
       <c r="L410" s="2" t="inlineStr">
         <is>
-          <t>Data Source Selection</t>
+          <t>Mapping Validation</t>
         </is>
       </c>
       <c r="M410" s="2" t="inlineStr">
@@ -18646,16 +18640,16 @@
         <v>1</v>
       </c>
       <c r="O410" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P410" s="2" t="inlineStr">
         <is>
-          <t>User credentials, Bologna-Milan match data</t>
+          <t>Sample valid Opta IDs and their expected SDAPI values</t>
         </is>
       </c>
       <c r="Q410" s="2" t="inlineStr">
         <is>
-          <t>Fantacalcio is not used as a data source for official lineups for Bologna-Milan.</t>
+          <t>The mapping conversion is accurately reflected in the returned SDAPI IDs.</t>
         </is>
       </c>
       <c r="R410" s="2" t="n">
@@ -18663,12 +18657,12 @@
       </c>
       <c r="S410" s="2" t="inlineStr">
         <is>
-          <t>Access the Fantacalcio application on Desktop.</t>
+          <t>Send a valid Opta ID for conversion to SDAPI.</t>
         </is>
       </c>
       <c r="T410" s="2" t="inlineStr">
         <is>
-          <t>Fantacalcio application loads successfully.</t>
+          <t>A valid SDAPI ID is returned for the provided Opta ID.</t>
         </is>
       </c>
       <c r="U410" s="2" t="inlineStr">
@@ -18683,12 +18677,12 @@
       </c>
       <c r="Z410" s="2" t="inlineStr">
         <is>
-          <t>Negative test to ensure Fantacalcio is not used for Bologna-Milan.</t>
+          <t>This test validates the conversion but does not test all possible edge cases.</t>
         </is>
       </c>
       <c r="AA410" s="2" t="inlineStr">
         <is>
-          <t>Esclusione Fantacalcio su specifico match – Recuperi e Match Day (RU 4)</t>
+          <t>OPTA Mappings Feed</t>
         </is>
       </c>
     </row>
@@ -18698,477 +18692,12 @@
       </c>
       <c r="S411" s="2" t="inlineStr">
         <is>
-          <t>Navigate to the match details for Bologna-Milan.</t>
+          <t>Cross-verify the returned SDAPI ID with expected mapping.</t>
         </is>
       </c>
       <c r="T411" s="2" t="inlineStr">
         <is>
-          <t>Match details page for Bologna-Milan is displayed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="R412" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S412" s="2" t="inlineStr">
-        <is>
-          <t>Verify that Fantacalcio is not listed as a data source for official lineups for Bologna-Milan.</t>
-        </is>
-      </c>
-      <c r="T412" s="2" t="inlineStr">
-        <is>
-          <t>Fantacalcio is not listed as a data source for official lineups for Bologna-Milan.</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="2" t="inlineStr">
-        <is>
-          <t>Fantacalcio-proj_20_requirement_data_source_selection_non_weekend_match_TEST_Desktop</t>
-        </is>
-      </c>
-      <c r="B413" s="2" t="inlineStr">
-        <is>
-          <t>TC-004</t>
-        </is>
-      </c>
-      <c r="C413" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="D413" s="2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="E413" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="F413" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G413" s="2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H413" s="2" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="I413" s="2" t="inlineStr">
-        <is>
-          <t>Windows 10, Fantacalcio Web</t>
-        </is>
-      </c>
-      <c r="J413" s="2" t="inlineStr">
-        <is>
-          <t>1. User has valid credentials and is logged into Fantacalcio.
-2. Non-weekend matches for turn number 20 are scheduled and available in the system.</t>
-        </is>
-      </c>
-      <c r="K413" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L413" s="2" t="inlineStr">
-        <is>
-          <t>Data Source Selection</t>
-        </is>
-      </c>
-      <c r="M413" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N413" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O413" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P413" s="2" t="inlineStr">
-        <is>
-          <t>User credentials, non-weekend match data for turn 20</t>
-        </is>
-      </c>
-      <c r="Q413" s="2" t="inlineStr">
-        <is>
-          <t>Fantacalcio is not used as the data source for official lineups for non-weekend matches of turn 20.</t>
-        </is>
-      </c>
-      <c r="R413" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S413" s="2" t="inlineStr">
-        <is>
-          <t>Access the Fantacalcio application on Desktop.</t>
-        </is>
-      </c>
-      <c r="T413" s="2" t="inlineStr">
-        <is>
-          <t>Fantacalcio application loads successfully.</t>
-        </is>
-      </c>
-      <c r="U413" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y413" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="Z413" s="2" t="inlineStr">
-        <is>
-          <t>Covers non-weekend matches for turn 20.</t>
-        </is>
-      </c>
-      <c r="AA413" s="2" t="inlineStr">
-        <is>
-          <t>Esclusione Fantacalcio su specifico match – Recuperi e Match Day (RU 4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="R414" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S414" s="2" t="inlineStr">
-        <is>
-          <t>Navigate to the match details for a non-weekend match in turn number 20.</t>
-        </is>
-      </c>
-      <c r="T414" s="2" t="inlineStr">
-        <is>
-          <t>Match details page for the selected non-weekend match is displayed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="R415" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S415" s="2" t="inlineStr">
-        <is>
-          <t>Check the data source used for official lineups for the selected match.</t>
-        </is>
-      </c>
-      <c r="T415" s="2" t="inlineStr">
-        <is>
-          <t>Fantacalcio is not used as the data source for official lineups for non-weekend matches.</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="2" t="inlineStr">
-        <is>
-          <t>FallbackFormations_proj5_FallbackMechanism_Prematch_TEST_Desktop_NonPrioritizedBrand</t>
-        </is>
-      </c>
-      <c r="B416" s="2" t="inlineStr">
-        <is>
-          <t>TC-005</t>
-        </is>
-      </c>
-      <c r="C416" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="D416" s="2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="E416" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="F416" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G416" s="2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H416" s="2" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="I416" s="2" t="inlineStr">
-        <is>
-          <t>Windows 10, Sisal Web Platform</t>
-        </is>
-      </c>
-      <c r="J416" s="2" t="inlineStr">
-        <is>
-          <t>1. User account with access to non-prioritized manifestations/brands.
-2. At least one prematch event configured where Fantacalcio API is unavailable and the brand is not prioritized.
-3. Sportradar Soccer V4 API integration active.
-4. Desktop device with internet access.</t>
-        </is>
-      </c>
-      <c r="K416" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L416" s="2" t="inlineStr">
-        <is>
-          <t>Fallback Mechanism for Official Formations</t>
-        </is>
-      </c>
-      <c r="M416" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N416" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O416" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P416" s="2" t="inlineStr">
-        <is>
-          <t>User credentials, event ID for non-prioritized manifestation/brand, Fantacalcio API unavailable.</t>
-        </is>
-      </c>
-      <c r="Q416" s="2" t="inlineStr">
-        <is>
-          <t>For non-prioritized brands, the fallback to Sportradar Soccer V4 is not applied as per requirement.</t>
-        </is>
-      </c>
-      <c r="R416" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S416" s="2" t="inlineStr">
-        <is>
-          <t>Access the Sisal platform as an authorized user on a desktop device.</t>
-        </is>
-      </c>
-      <c r="T416" s="2" t="inlineStr">
-        <is>
-          <t>User is successfully logged in and can access the prematch section.</t>
-        </is>
-      </c>
-      <c r="U416" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y416" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="Z416" s="2" t="inlineStr">
-        <is>
-          <t>Negative scenario for non-prioritized brands.</t>
-        </is>
-      </c>
-      <c r="AA416" s="2" t="inlineStr">
-        <is>
-          <t>Soluzione di Fallback in caso di esclusione Fantacalcio (RU 5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="R417" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S417" s="2" t="inlineStr">
-        <is>
-          <t>Navigate to a prematch event for a manifestation/brand NOT prioritized for Fantacalcio, where Fantacalcio APIs are not available.</t>
-        </is>
-      </c>
-      <c r="T417" s="2" t="inlineStr">
-        <is>
-          <t>The system recognizes the event is not prioritized for Fantacalcio.</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="R418" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S418" s="2" t="inlineStr">
-        <is>
-          <t>Observe the source of the official formations displayed for the match.</t>
-        </is>
-      </c>
-      <c r="T418" s="2" t="inlineStr">
-        <is>
-          <t>The system does not apply the fallback mechanism described for prioritized brands; formations may be missing or sourced differently as per business rules.</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="2" t="inlineStr">
-        <is>
-          <t>PrematchFieldPriority-proj_002_NoBackofficeConfig_Sisal_SerieA_TEST_Desktop</t>
-        </is>
-      </c>
-      <c r="B419" s="2" t="inlineStr">
-        <is>
-          <t>TC-006</t>
-        </is>
-      </c>
-      <c r="C419" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="D419" s="2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="E419" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="F419" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G419" s="2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="H419" s="2" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="I419" s="2" t="inlineStr">
-        <is>
-          <t>Windows 10, Web Sisal</t>
-        </is>
-      </c>
-      <c r="J419" s="2" t="inlineStr">
-        <is>
-          <t>1. Sisal brand platform is accessible.
-2. Serie A event is available in the Calcio section.
-3. Fantacalcio is configured as the priority provider for prematch campetti on Serie A for Sisal via release.</t>
-        </is>
-      </c>
-      <c r="K419" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L419" s="2" t="inlineStr">
-        <is>
-          <t>Provider Configuration Management</t>
-        </is>
-      </c>
-      <c r="M419" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="O419" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P419" s="2" t="inlineStr">
-        <is>
-          <t>Serie A event active; Sisal brand user access.</t>
-        </is>
-      </c>
-      <c r="Q419" s="2" t="inlineStr">
-        <is>
-          <t>Fantacalcio provider priority is set via release, not via backoffice configuration.</t>
-        </is>
-      </c>
-      <c r="R419" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S419" s="2" t="inlineStr">
-        <is>
-          <t>Access the Sisal brand platform via desktop.</t>
-        </is>
-      </c>
-      <c r="T419" s="2" t="inlineStr">
-        <is>
-          <t>Sisal brand homepage is displayed.</t>
-        </is>
-      </c>
-      <c r="U419" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="Y419" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="Z419" s="2" t="inlineStr">
-        <is>
-          <t>Covers configuration management aspect for provider priority.</t>
-        </is>
-      </c>
-      <c r="AA419" s="2" t="inlineStr">
-        <is>
-          <t>Priorità Fantacalcio su Manifestazione/Brand (RU 2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="R420" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S420" s="2" t="inlineStr">
-        <is>
-          <t>Navigate to the Serie A event in the Calcio section.</t>
-        </is>
-      </c>
-      <c r="T420" s="2" t="inlineStr">
-        <is>
-          <t>Serie A event page is displayed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="R421" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S421" s="2" t="inlineStr">
-        <is>
-          <t>Attempt to locate any backoffice or admin tool for configuring campetti provider priority.</t>
-        </is>
-      </c>
-      <c r="T421" s="2" t="inlineStr">
-        <is>
-          <t>No backoffice or admin tool is available for this configuration.</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="R422" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S422" s="2" t="inlineStr">
-        <is>
-          <t>Verify that Fantacalcio is the provider for prematch campetti as per the release configuration.</t>
-        </is>
-      </c>
-      <c r="T422" s="2" t="inlineStr">
-        <is>
-          <t>Fantacalcio is the provider for prematch campetti, set via release and not via backoffice.</t>
+          <t>The returned SDAPI ID matches the expected value.</t>
         </is>
       </c>
     </row>
